--- a/TheCompleteProject.Api/wwwroot/TestingFiles/error.xlsx
+++ b/TheCompleteProject.Api/wwwroot/TestingFiles/error.xlsx
@@ -6,24 +6,54 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="UploadUsersSheet" sheetId="1" r:id="rId3"/>
+    <sheet name="GeneratedUsersSheet" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Sabrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabrina@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password@12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-10-2022 04:25:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">faisal@nimapinfotech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123123123@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["Password Contains Special Characters .","UserName Is Mandatory."]</t>
+    <t xml:space="preserve">13-10-2022 08:18:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-10-2022 08:18:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfaisal180@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-01-2023 03:56:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-01-2023 09:42:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
     <t xml:space="preserve">UserName</t>
@@ -32,10 +62,25 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">RoleId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">ErrorMessages</t>
+    <t xml:space="preserve">IsActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreatedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModifiedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreatedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModifiedDate</t>
   </si>
 </sst>
 </file>
@@ -122,38 +167,176 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
